--- a/gjm-solution-113-manage-duplicate-values.xlsx
+++ b/gjm-solution-113-manage-duplicate-values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\omid-data-challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A707C98-D100-41DA-9D63-57F9BB997B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6087C02-8766-4A27-94CF-B8FEC7B16219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>product_id</t>
+  </si>
+  <si>
+    <t>Validate</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -717,7 +720,9 @@
         <f t="array" ref="F2:F15">_xlfn._xlws.PY(0,0,B2:B15)</f>
         <v>product_id</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -736,7 +741,10 @@
       <c r="F3" s="2" t="str">
         <v>100-1-1</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="b">
+        <f>D3=F3</f>
+        <v>1</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -755,7 +763,10 @@
       <c r="F4" s="2" t="str">
         <v>100-1-2</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="b">
+        <f t="shared" ref="G4:G15" si="0">D4=F4</f>
+        <v>1</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -774,7 +785,10 @@
       <c r="F5" s="2">
         <v>102</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -793,7 +807,10 @@
       <c r="F6" s="2">
         <v>103</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -812,7 +829,10 @@
       <c r="F7" s="3" t="str">
         <v>100-2-1</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -831,7 +851,10 @@
       <c r="F8" s="3" t="str">
         <v>100-2-2</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -850,7 +873,10 @@
       <c r="F9" s="3" t="str">
         <v>107-1-1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -869,7 +895,10 @@
       <c r="F10" s="3" t="str">
         <v>107-1-2</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -888,7 +917,10 @@
       <c r="F11" s="3" t="str">
         <v>108-1-1</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -907,7 +939,10 @@
       <c r="F12" s="3" t="str">
         <v>108-1-2</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -924,6 +959,10 @@
       <c r="F13" t="str">
         <v>108-1-3</v>
       </c>
+      <c r="G13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B14" s="9">
@@ -935,6 +974,10 @@
       <c r="F14" t="str">
         <v>100-3-1</v>
       </c>
+      <c r="G14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="8">
@@ -945,6 +988,10 @@
       </c>
       <c r="F15" t="str">
         <v>108-2-1</v>
+      </c>
+      <c r="G15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="14.25" x14ac:dyDescent="0.45"/>
